--- a/ציונים פרוייקט 2.xlsx
+++ b/ציונים פרוייקט 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgalil-my.sharepoint.com/personal/alexg_wgalil_ac_il/Documents/Documents/Personal/מתנס/QA/QA-13-06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{52959B75-A1CE-4C45-B25E-3DB3204587B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF02689-9DC4-478D-9AA3-E1CFBF4808C7}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{52959B75-A1CE-4C45-B25E-3DB3204587B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6E40D46-10B4-4008-A378-360DE21A695B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{58C6F7E7-1DAA-4816-95A0-777AE489F61D}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
